--- a/Haarweg/misc/BADM-Vegetation_Cover/HW-BADM-VegCover-v2022.xlsx
+++ b/Haarweg/misc/BADM-Vegetation_Cover/HW-BADM-VegCover-v2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\ICOS\BADM\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\zz_HaarwegDuivendaal\FLUXNET\Haarweg\misc\BADM-Vegetation_Cover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73673A89-FFEB-406B-8186-21336E185B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D9CACF-F810-4E50-A220-D0FEC9F94380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="0" windowWidth="21968" windowHeight="17670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VegCover" sheetId="1" r:id="rId1"/>
@@ -1987,7 +1987,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2289,16 +2289,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2345,7 +2343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2367,7 +2365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2389,7 +2387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2400,7 +2398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -2422,7 +2420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2433,7 +2431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -2455,7 +2453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -2466,7 +2464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -2477,7 +2475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -2499,7 +2497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2510,7 +2508,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -2521,7 +2519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
@@ -2532,7 +2530,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
@@ -2543,7 +2541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -2565,7 +2563,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
@@ -2576,7 +2574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -2587,7 +2585,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -2598,7 +2596,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -2609,7 +2607,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>73</v>
       </c>
@@ -2620,7 +2618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
@@ -2631,7 +2629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>77</v>
       </c>
@@ -2642,7 +2640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>79</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>81</v>
       </c>
@@ -2664,7 +2662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>83</v>
       </c>
@@ -2675,7 +2673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -2686,7 +2684,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
@@ -2697,7 +2695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>91</v>
       </c>
@@ -2708,7 +2706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -2719,7 +2717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -2730,7 +2728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
@@ -2741,7 +2739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>99</v>
       </c>
@@ -2752,7 +2750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>101</v>
       </c>
@@ -2763,7 +2761,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>104</v>
       </c>
@@ -2774,7 +2772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
@@ -2785,7 +2783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
@@ -2796,7 +2794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>110</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>112</v>
       </c>
@@ -2818,7 +2816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -2829,7 +2827,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>116</v>
       </c>
@@ -2840,7 +2838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -2851,7 +2849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>120</v>
       </c>
@@ -2862,7 +2860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>122</v>
       </c>
@@ -2873,7 +2871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -2884,7 +2882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>126</v>
       </c>
@@ -2895,7 +2893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>128</v>
       </c>
@@ -2906,7 +2904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>130</v>
       </c>
@@ -2917,7 +2915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>132</v>
       </c>
@@ -2928,7 +2926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>134</v>
       </c>
@@ -2939,7 +2937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>136</v>
       </c>
@@ -2950,7 +2948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>138</v>
       </c>
@@ -2961,7 +2959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>141</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>143</v>
       </c>
@@ -2983,7 +2981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
@@ -2994,7 +2992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>147</v>
       </c>
@@ -3005,7 +3003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>149</v>
       </c>
@@ -3016,7 +3014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>151</v>
       </c>
@@ -3027,7 +3025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>153</v>
       </c>
@@ -3038,7 +3036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>155</v>
       </c>
@@ -3049,7 +3047,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3060,7 +3058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3071,7 +3069,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3082,7 +3080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>164</v>
       </c>
@@ -3093,7 +3091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>166</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>168</v>
       </c>
@@ -3115,7 +3113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>170</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>172</v>
       </c>
@@ -3137,7 +3135,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>174</v>
       </c>
@@ -3148,7 +3146,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>176</v>
       </c>
@@ -3159,7 +3157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>178</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>180</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>182</v>
       </c>
@@ -3192,7 +3190,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
@@ -3203,7 +3201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>186</v>
       </c>
@@ -3214,7 +3212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>188</v>
       </c>
@@ -3225,7 +3223,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>191</v>
       </c>
@@ -3236,7 +3234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>193</v>
       </c>
@@ -3247,7 +3245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>195</v>
       </c>
@@ -3258,7 +3256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>197</v>
       </c>
@@ -3269,7 +3267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>199</v>
       </c>
@@ -3280,7 +3278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>201</v>
       </c>
@@ -3291,7 +3289,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>203</v>
       </c>
@@ -3302,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>205</v>
       </c>
@@ -3313,7 +3311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>207</v>
       </c>
@@ -3324,7 +3322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>209</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>211</v>
       </c>
@@ -3346,7 +3344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>213</v>
       </c>
@@ -3357,7 +3355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>215</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>218</v>
       </c>
@@ -3379,7 +3377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>220</v>
       </c>
@@ -3390,7 +3388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>222</v>
       </c>
@@ -3401,7 +3399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>224</v>
       </c>
@@ -3412,7 +3410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>226</v>
       </c>
@@ -3423,7 +3421,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>228</v>
       </c>
@@ -3434,7 +3432,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>230</v>
       </c>
@@ -3445,7 +3443,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>233</v>
       </c>
@@ -3456,7 +3454,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>236</v>
       </c>
@@ -3467,7 +3465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>238</v>
       </c>
@@ -3478,7 +3476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>240</v>
       </c>
@@ -3489,7 +3487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>242</v>
       </c>
@@ -3500,7 +3498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>244</v>
       </c>
@@ -3511,7 +3509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>246</v>
       </c>
@@ -3522,7 +3520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>248</v>
       </c>
@@ -3533,7 +3531,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>250</v>
       </c>
@@ -3544,7 +3542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>252</v>
       </c>
@@ -3555,7 +3553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>254</v>
       </c>
@@ -3566,7 +3564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>256</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>258</v>
       </c>
@@ -3588,7 +3586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>260</v>
       </c>
@@ -3599,7 +3597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>262</v>
       </c>
@@ -3610,7 +3608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>264</v>
       </c>
@@ -3621,7 +3619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>266</v>
       </c>
@@ -3632,7 +3630,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>268</v>
       </c>
@@ -3643,7 +3641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>270</v>
       </c>
@@ -3654,7 +3652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>272</v>
       </c>
@@ -3665,7 +3663,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>275</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>278</v>
       </c>
@@ -3687,7 +3685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>280</v>
       </c>
@@ -3698,7 +3696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>282</v>
       </c>
@@ -3709,7 +3707,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>285</v>
       </c>
@@ -3720,7 +3718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>287</v>
       </c>
@@ -3731,7 +3729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>289</v>
       </c>
@@ -3742,7 +3740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>291</v>
       </c>
@@ -3753,7 +3751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>293</v>
       </c>
@@ -3764,7 +3762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>497</v>
       </c>
@@ -3775,7 +3773,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>500</v>
       </c>
@@ -3786,7 +3784,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>503</v>
       </c>
@@ -3797,7 +3795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>505</v>
       </c>
@@ -3808,7 +3806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>507</v>
       </c>
@@ -3819,7 +3817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>509</v>
       </c>
@@ -3830,7 +3828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>511</v>
       </c>
@@ -3841,7 +3839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>513</v>
       </c>
@@ -3852,7 +3850,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>516</v>
       </c>
@@ -3863,7 +3861,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>608</v>
       </c>
@@ -3874,7 +3872,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>609</v>
       </c>
@@ -3885,7 +3883,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>519</v>
       </c>
@@ -3896,7 +3894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>521</v>
       </c>
@@ -3907,7 +3905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>523</v>
       </c>
@@ -3918,7 +3916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>525</v>
       </c>
@@ -3929,7 +3927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>527</v>
       </c>
@@ -3940,7 +3938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>529</v>
       </c>
@@ -3951,7 +3949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>531</v>
       </c>
@@ -3962,7 +3960,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>534</v>
       </c>
@@ -3973,7 +3971,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>537</v>
       </c>
@@ -3984,7 +3982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>539</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>541</v>
       </c>
@@ -4006,7 +4004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>543</v>
       </c>
@@ -4017,7 +4015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>545</v>
       </c>
@@ -4028,7 +4026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>547</v>
       </c>
@@ -4039,7 +4037,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>550</v>
       </c>
@@ -4050,7 +4048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>552</v>
       </c>
@@ -4061,7 +4059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>554</v>
       </c>
@@ -4072,7 +4070,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>556</v>
       </c>
@@ -4083,7 +4081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>558</v>
       </c>
@@ -4094,7 +4092,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>560</v>
       </c>
@@ -4114,16 +4112,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>295</v>
       </c>
@@ -4134,7 +4130,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -4145,7 +4141,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -4156,7 +4152,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -4167,7 +4163,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -4178,7 +4174,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
@@ -4189,7 +4185,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
@@ -4200,7 +4196,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
@@ -4211,7 +4207,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -4220,7 +4216,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
@@ -4231,7 +4227,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
@@ -4242,7 +4238,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>86</v>
       </c>
@@ -4253,7 +4249,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>86</v>
       </c>
@@ -4264,7 +4260,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>86</v>
       </c>
@@ -4275,7 +4271,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
@@ -4286,7 +4282,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -4297,7 +4293,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -4308,7 +4304,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>328</v>
       </c>
@@ -4319,7 +4315,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>328</v>
       </c>
@@ -4330,7 +4326,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>328</v>
       </c>
@@ -4341,7 +4337,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -4352,7 +4348,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>337</v>
       </c>
@@ -4361,7 +4357,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>337</v>
       </c>
@@ -4370,7 +4366,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>337</v>
       </c>
@@ -4379,7 +4375,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>337</v>
       </c>
@@ -4388,7 +4384,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>337</v>
       </c>
@@ -4397,7 +4393,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>337</v>
       </c>
@@ -4406,7 +4402,7 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>344</v>
       </c>
@@ -4417,7 +4413,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>344</v>
       </c>
@@ -4428,7 +4424,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>344</v>
       </c>
@@ -4439,7 +4435,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>344</v>
       </c>
@@ -4448,7 +4444,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>351</v>
       </c>
@@ -4459,7 +4455,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>351</v>
       </c>
@@ -4470,7 +4466,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>351</v>
       </c>
@@ -4481,7 +4477,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>351</v>
       </c>
@@ -4492,7 +4488,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>351</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>351</v>
       </c>
@@ -4514,7 +4510,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>351</v>
       </c>
@@ -4525,7 +4521,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>351</v>
       </c>
@@ -4536,7 +4532,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>351</v>
       </c>
@@ -4547,7 +4543,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>351</v>
       </c>
@@ -4558,7 +4554,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>351</v>
       </c>
@@ -4569,7 +4565,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>351</v>
       </c>
@@ -4580,7 +4576,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>351</v>
       </c>
@@ -4591,7 +4587,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>351</v>
       </c>
@@ -4602,7 +4598,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>351</v>
       </c>
@@ -4613,7 +4609,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>351</v>
       </c>
@@ -4624,7 +4620,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>383</v>
       </c>
@@ -4635,7 +4631,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>383</v>
       </c>
@@ -4646,7 +4642,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>388</v>
       </c>
@@ -4657,7 +4653,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>388</v>
       </c>
@@ -4668,7 +4664,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>388</v>
       </c>
@@ -4679,7 +4675,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>388</v>
       </c>
@@ -4690,7 +4686,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>397</v>
       </c>
@@ -4701,7 +4697,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>397</v>
       </c>
@@ -4712,7 +4708,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>402</v>
       </c>
@@ -4721,7 +4717,7 @@
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>402</v>
       </c>
@@ -4730,7 +4726,7 @@
       </c>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>402</v>
       </c>
@@ -4739,7 +4735,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>402</v>
       </c>
@@ -4750,7 +4746,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>402</v>
       </c>
@@ -4759,7 +4755,7 @@
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>402</v>
       </c>
@@ -4768,7 +4764,7 @@
       </c>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>402</v>
       </c>
@@ -4777,7 +4773,7 @@
       </c>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>402</v>
       </c>
@@ -4786,7 +4782,7 @@
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>402</v>
       </c>
@@ -4797,7 +4793,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>402</v>
       </c>
@@ -4808,7 +4804,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>402</v>
       </c>
@@ -4819,7 +4815,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>402</v>
       </c>
@@ -4828,7 +4824,7 @@
       </c>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>402</v>
       </c>
@@ -4837,7 +4833,7 @@
       </c>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>402</v>
       </c>
@@ -4846,7 +4842,7 @@
       </c>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>402</v>
       </c>
@@ -4855,7 +4851,7 @@
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>402</v>
       </c>
@@ -4864,7 +4860,7 @@
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>402</v>
       </c>
@@ -4873,7 +4869,7 @@
       </c>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>402</v>
       </c>
@@ -4884,7 +4880,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>402</v>
       </c>
@@ -4895,7 +4891,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>402</v>
       </c>
@@ -4906,7 +4902,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>402</v>
       </c>
@@ -4917,7 +4913,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>402</v>
       </c>
@@ -4928,7 +4924,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>562</v>
       </c>
@@ -4939,7 +4935,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>562</v>
       </c>
@@ -4950,7 +4946,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>562</v>
       </c>
@@ -4961,7 +4957,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>562</v>
       </c>
@@ -4970,7 +4966,7 @@
       </c>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>562</v>
       </c>
@@ -4979,7 +4975,7 @@
       </c>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>562</v>
       </c>
@@ -4990,7 +4986,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>562</v>
       </c>
@@ -5001,7 +4997,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>562</v>
       </c>
@@ -5012,7 +5008,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>562</v>
       </c>
@@ -5021,7 +5017,7 @@
       </c>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>562</v>
       </c>
@@ -5030,7 +5026,7 @@
       </c>
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>562</v>
       </c>
@@ -5039,7 +5035,7 @@
       </c>
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>562</v>
       </c>
@@ -5048,7 +5044,7 @@
       </c>
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>562</v>
       </c>
@@ -5057,7 +5053,7 @@
       </c>
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>562</v>
       </c>
@@ -5068,7 +5064,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>562</v>
       </c>
@@ -5077,7 +5073,7 @@
       </c>
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>562</v>
       </c>
@@ -5088,7 +5084,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>562</v>
       </c>
@@ -5099,7 +5095,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>587</v>
       </c>
@@ -5108,7 +5104,7 @@
       </c>
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>587</v>
       </c>
@@ -5117,7 +5113,7 @@
       </c>
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>587</v>
       </c>
@@ -5126,7 +5122,7 @@
       </c>
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>591</v>
       </c>
@@ -5135,7 +5131,7 @@
       </c>
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>591</v>
       </c>
@@ -5144,7 +5140,7 @@
       </c>
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>534</v>
       </c>
@@ -5153,7 +5149,7 @@
       </c>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>534</v>
       </c>
@@ -5162,7 +5158,7 @@
       </c>
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>547</v>
       </c>
@@ -5171,7 +5167,7 @@
       </c>
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>547</v>
       </c>
@@ -5180,7 +5176,7 @@
       </c>
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>547</v>
       </c>
@@ -5189,7 +5185,7 @@
       </c>
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>547</v>
       </c>
@@ -5200,7 +5196,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>547</v>
       </c>
@@ -5209,7 +5205,7 @@
       </c>
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>547</v>
       </c>
@@ -5218,7 +5214,7 @@
       </c>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>547</v>
       </c>
@@ -5229,7 +5225,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>547</v>
       </c>
@@ -5238,7 +5234,7 @@
       </c>
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>547</v>
       </c>
@@ -5249,7 +5245,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>547</v>
       </c>
@@ -5273,14 +5269,14 @@
       <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="40" customWidth="1"/>
     <col min="3" max="5" width="11" customWidth="1"/>
     <col min="6" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>432</v>
       </c>
@@ -5303,7 +5299,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>437</v>
       </c>
@@ -5324,7 +5320,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>437</v>
       </c>
@@ -5345,7 +5341,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>437</v>
       </c>
@@ -5366,7 +5362,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>437</v>
       </c>
@@ -5387,7 +5383,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>437</v>
       </c>
@@ -5408,7 +5404,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>445</v>
       </c>
@@ -5429,7 +5425,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>445</v>
       </c>
@@ -5450,7 +5446,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>445</v>
       </c>
@@ -5469,7 +5465,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>445</v>
       </c>
@@ -5490,7 +5486,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>445</v>
       </c>
@@ -5509,7 +5505,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>445</v>
       </c>
@@ -5528,7 +5524,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>445</v>
       </c>
@@ -5549,7 +5545,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>445</v>
       </c>
@@ -5570,7 +5566,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>445</v>
       </c>
@@ -5589,7 +5585,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>445</v>
       </c>
@@ -5610,7 +5606,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>445</v>
       </c>
@@ -5629,7 +5625,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>445</v>
       </c>
@@ -5648,7 +5644,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>445</v>
       </c>
@@ -5669,7 +5665,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>445</v>
       </c>
@@ -5686,7 +5682,7 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>445</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>445</v>
       </c>
@@ -5728,7 +5724,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>445</v>
       </c>
@@ -5747,7 +5743,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>445</v>
       </c>
@@ -5766,7 +5762,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>445</v>
       </c>
@@ -5785,7 +5781,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>462</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>462</v>
       </c>
@@ -5827,7 +5823,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>462</v>
       </c>
@@ -5848,7 +5844,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>462</v>
       </c>
@@ -5867,7 +5863,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>462</v>
       </c>
@@ -5886,7 +5882,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>462</v>
       </c>
@@ -5907,7 +5903,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>462</v>
       </c>
@@ -5926,7 +5922,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>462</v>
       </c>
@@ -5945,7 +5941,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>462</v>
       </c>
@@ -5964,7 +5960,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>462</v>
       </c>
@@ -5983,7 +5979,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>462</v>
       </c>
@@ -6002,7 +5998,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>462</v>
       </c>
@@ -6023,7 +6019,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>462</v>
       </c>
@@ -6044,7 +6040,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>462</v>
       </c>
@@ -6063,7 +6059,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>462</v>
       </c>
@@ -6082,7 +6078,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>462</v>
       </c>
@@ -6099,7 +6095,7 @@
       </c>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>471</v>
       </c>
@@ -6120,7 +6116,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>471</v>
       </c>
@@ -6139,7 +6135,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>471</v>
       </c>
@@ -6158,7 +6154,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>471</v>
       </c>
@@ -6179,7 +6175,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>471</v>
       </c>
@@ -6198,7 +6194,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>471</v>
       </c>
@@ -6217,7 +6213,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>471</v>
       </c>
@@ -6238,7 +6234,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>471</v>
       </c>
@@ -6257,7 +6253,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>471</v>
       </c>
@@ -6276,7 +6272,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>471</v>
       </c>
@@ -6297,7 +6293,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>471</v>
       </c>
@@ -6316,7 +6312,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>471</v>
       </c>
@@ -6335,7 +6331,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>471</v>
       </c>
@@ -6352,7 +6348,7 @@
       </c>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>471</v>
       </c>
@@ -6373,7 +6369,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>471</v>
       </c>
@@ -6394,7 +6390,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>471</v>
       </c>
@@ -6413,7 +6409,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>471</v>
       </c>
@@ -6432,7 +6428,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>471</v>
       </c>
@@ -6449,7 +6445,7 @@
       </c>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>474</v>
       </c>
@@ -6470,7 +6466,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>474</v>
       </c>
@@ -6491,7 +6487,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>474</v>
       </c>
@@ -6510,7 +6506,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>474</v>
       </c>
@@ -6529,7 +6525,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>474</v>
       </c>
@@ -6546,7 +6542,7 @@
       </c>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>474</v>
       </c>
@@ -6567,7 +6563,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>474</v>
       </c>
@@ -6588,7 +6584,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>474</v>
       </c>
@@ -6607,7 +6603,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>474</v>
       </c>
@@ -6626,7 +6622,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>474</v>
       </c>
@@ -6643,7 +6639,7 @@
       </c>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>478</v>
       </c>
@@ -6664,7 +6660,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>478</v>
       </c>
@@ -6683,7 +6679,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>478</v>
       </c>
@@ -6702,7 +6698,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>478</v>
       </c>
@@ -6723,7 +6719,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>478</v>
       </c>
@@ -6742,7 +6738,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>478</v>
       </c>
@@ -6761,7 +6757,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>478</v>
       </c>
@@ -6780,7 +6776,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>478</v>
       </c>
@@ -6799,7 +6795,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>478</v>
       </c>
@@ -6816,7 +6812,7 @@
       </c>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>478</v>
       </c>
@@ -6837,7 +6833,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>478</v>
       </c>
@@ -6858,7 +6854,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>478</v>
       </c>
@@ -6877,7 +6873,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>478</v>
       </c>
@@ -6896,7 +6892,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>478</v>
       </c>
@@ -6913,7 +6909,7 @@
       </c>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>483</v>
       </c>
@@ -6934,7 +6930,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>483</v>
       </c>
@@ -6953,7 +6949,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>483</v>
       </c>
@@ -6972,7 +6968,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>483</v>
       </c>
@@ -6993,7 +6989,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>483</v>
       </c>
@@ -7012,7 +7008,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>483</v>
       </c>
@@ -7031,7 +7027,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>483</v>
       </c>
@@ -7050,7 +7046,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>483</v>
       </c>
@@ -7067,7 +7063,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>483</v>
       </c>
@@ -7088,7 +7084,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>483</v>
       </c>
@@ -7109,7 +7105,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>483</v>
       </c>
@@ -7128,7 +7124,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>483</v>
       </c>
@@ -7147,7 +7143,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>483</v>
       </c>
@@ -7164,7 +7160,7 @@
       </c>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>486</v>
       </c>
@@ -7185,7 +7181,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>486</v>
       </c>
@@ -7204,7 +7200,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>486</v>
       </c>
@@ -7223,7 +7219,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>486</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>486</v>
       </c>
@@ -7263,7 +7259,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>486</v>
       </c>
@@ -7282,7 +7278,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>486</v>
       </c>
@@ -7301,7 +7297,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>486</v>
       </c>
@@ -7320,7 +7316,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>486</v>
       </c>
@@ -7339,7 +7335,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>486</v>
       </c>
@@ -7356,7 +7352,7 @@
       </c>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>486</v>
       </c>
@@ -7377,7 +7373,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>486</v>
       </c>
@@ -7398,7 +7394,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>486</v>
       </c>
@@ -7417,7 +7413,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>486</v>
       </c>
@@ -7436,7 +7432,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>486</v>
       </c>
@@ -7453,7 +7449,7 @@
       </c>
       <c r="G111" s="11"/>
     </row>
-    <row r="112" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>491</v>
       </c>
@@ -7474,7 +7470,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>491</v>
       </c>
@@ -7493,7 +7489,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>491</v>
       </c>
@@ -7512,7 +7508,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>491</v>
       </c>
@@ -7533,7 +7529,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>491</v>
       </c>
@@ -7552,7 +7548,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>491</v>
       </c>
@@ -7571,7 +7567,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>491</v>
       </c>
@@ -7588,7 +7584,7 @@
       </c>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>491</v>
       </c>
@@ -7609,7 +7605,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>491</v>
       </c>
@@ -7630,7 +7626,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>491</v>
       </c>
@@ -7649,7 +7645,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>491</v>
       </c>
@@ -7668,7 +7664,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>491</v>
       </c>
@@ -7685,7 +7681,7 @@
       </c>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>493</v>
       </c>
@@ -7706,7 +7702,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>493</v>
       </c>
@@ -7727,7 +7723,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>493</v>
       </c>
@@ -7746,7 +7742,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>493</v>
       </c>
@@ -7765,7 +7761,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>493</v>
       </c>
@@ -7786,7 +7782,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>493</v>
       </c>
@@ -7807,7 +7803,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>493</v>
       </c>
@@ -7826,7 +7822,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>493</v>
       </c>
@@ -7845,7 +7841,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>493</v>
       </c>
@@ -7862,7 +7858,7 @@
       </c>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>493</v>
       </c>
@@ -7879,7 +7875,7 @@
       </c>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>595</v>
       </c>
@@ -7902,7 +7898,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>595</v>
       </c>
@@ -7923,7 +7919,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>595</v>
       </c>
@@ -7942,7 +7938,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>595</v>
       </c>
@@ -7961,7 +7957,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>595</v>
       </c>
@@ -7982,7 +7978,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>595</v>
       </c>
@@ -8001,7 +7997,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>595</v>
       </c>
@@ -8020,7 +8016,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>595</v>
       </c>
@@ -8039,7 +8035,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>595</v>
       </c>
@@ -8058,7 +8054,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>595</v>
       </c>
@@ -8077,7 +8073,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>595</v>
       </c>
@@ -8096,7 +8092,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>595</v>
       </c>
@@ -8115,7 +8111,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>595</v>
       </c>
@@ -8136,7 +8132,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>595</v>
       </c>
@@ -8157,7 +8153,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>595</v>
       </c>
@@ -8178,7 +8174,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>595</v>
       </c>
@@ -8197,7 +8193,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>595</v>
       </c>
@@ -8214,7 +8210,7 @@
       </c>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>603</v>
       </c>
@@ -8237,7 +8233,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>603</v>
       </c>
@@ -8258,7 +8254,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>603</v>
       </c>
@@ -8277,7 +8273,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>603</v>
       </c>
@@ -8296,7 +8292,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>603</v>
       </c>
@@ -8317,7 +8313,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>603</v>
       </c>
@@ -8336,7 +8332,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>603</v>
       </c>
@@ -8355,7 +8351,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>603</v>
       </c>
@@ -8374,7 +8370,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>603</v>
       </c>
@@ -8393,7 +8389,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>603</v>
       </c>
@@ -8414,7 +8410,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>603</v>
       </c>
@@ -8435,7 +8431,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>603</v>
       </c>
@@ -8456,7 +8452,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>603</v>
       </c>
@@ -8475,7 +8471,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>603</v>
       </c>
